--- a/Caysie/Box_ref.xlsx
+++ b/Caysie/Box_ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesley\Desktop\workboard\Caysie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C89520-0223-42BC-8860-7C48798CD9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B9EFDD-CF93-40B4-A50B-436F7D6668B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>ERP_CODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,81 @@
   </si>
   <si>
     <t>S8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BXA45DKN7A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N7A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80x90x50</t>
+  </si>
+  <si>
+    <t>95x90x90</t>
+  </si>
+  <si>
+    <t>135x90x90</t>
+  </si>
+  <si>
+    <t>180x90x90</t>
+  </si>
+  <si>
+    <t>230x90x90</t>
+  </si>
+  <si>
+    <t>230x130x90</t>
+  </si>
+  <si>
+    <t>320x90x90</t>
+  </si>
+  <si>
+    <t>55x43x46</t>
+  </si>
+  <si>
+    <t>85x55x46</t>
+  </si>
+  <si>
+    <t>90x68x55</t>
+  </si>
+  <si>
+    <t>95x90x60</t>
+  </si>
+  <si>
+    <t>135x90x60</t>
+  </si>
+  <si>
+    <t>190x130x90</t>
+  </si>
+  <si>
+    <t>CTA5PW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>265x265x150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTA3PK0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BULK(US)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>228x186x140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8*2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,144 +551,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
